--- a/ja/application_framework/application_framework/web/getting_started/images/client_create/images.xlsx
+++ b/ja/application_framework/application_framework/web/getting_started/images/client_create/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikk91214\work\v6\project\nablarch-document\ja\application_framework\application_framework\web\getting_started\images\client_create\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA699E96-E65D-4EC5-B6E8-7E46CB5BA0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="555" windowWidth="9015" windowHeight="8700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="顧客登録" sheetId="1" r:id="rId1"/>
@@ -76,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,6 +303,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -318,7 +327,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="角丸四角形 65"/>
+        <xdr:cNvPr id="66" name="角丸四角形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -375,7 +390,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 47"/>
+        <xdr:cNvPr id="48" name="角丸四角形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -437,7 +458,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="角丸四角形 59"/>
+        <xdr:cNvPr id="60" name="角丸四角形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -499,7 +526,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="角丸四角形 60"/>
+        <xdr:cNvPr id="61" name="角丸四角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -561,7 +594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="角丸四角形 66"/>
+        <xdr:cNvPr id="67" name="角丸四角形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -623,7 +662,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="3"/>
           <a:endCxn id="67" idx="1"/>
@@ -673,7 +718,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -720,7 +771,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線矢印コネクタ 72"/>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="60" idx="3"/>
           <a:endCxn id="61" idx="1"/>
@@ -770,7 +827,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="テキスト ボックス 74"/>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -833,7 +896,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -896,7 +965,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="テキスト ボックス 76"/>
+        <xdr:cNvPr id="77" name="テキスト ボックス 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -959,7 +1034,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1006,7 +1087,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1069,7 +1156,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1114,7 +1207,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1159,7 +1258,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1204,7 +1309,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="円/楕円 17"/>
+        <xdr:cNvPr id="18" name="円/楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1255,157 +1366,78 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19321</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152824</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="グループ化 36"/>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4256183C-7C6E-45D9-014E-C708AF19FF79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="838200" y="4305300"/>
-          <a:ext cx="1981471" cy="5039149"/>
-          <a:chOff x="857250" y="8963025"/>
-          <a:chExt cx="1981471" cy="5039149"/>
+          <a:off x="800100" y="4113738"/>
+          <a:ext cx="2800350" cy="4906437"/>
+          <a:chOff x="3000375" y="4391025"/>
+          <a:chExt cx="2800350" cy="4906437"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="21" name="グループ化 20"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="図 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4010308D-0144-47EE-9E2C-2D1FFFF713E7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect b="84483"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="857250" y="8963025"/>
-            <a:ext cx="1981471" cy="5039149"/>
-            <a:chOff x="857250" y="8963025"/>
-            <a:chExt cx="1981471" cy="5039149"/>
+            <a:off x="3000375" y="4391025"/>
+            <a:ext cx="2772162" cy="1181100"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="14" name="図 13"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="895350" y="8963025"/>
-              <a:ext cx="1943371" cy="1228897"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="図 18"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="857250" y="10963275"/>
-              <a:ext cx="1905266" cy="3038899"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1306841" y="10296525"/>
-              <a:ext cx="915122" cy="519147"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="ctr">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>～</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="46" name="直線コネクタ 45"/>
+          <xdr:cNvPr id="4" name="直線コネクタ 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0138DA15-5C00-4437-A273-4B9031BBBDAA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1047750" y="10953750"/>
-            <a:ext cx="1581150" cy="0"/>
+            <a:off x="3000375" y="5572125"/>
+            <a:ext cx="2800350" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -1432,15 +1464,49 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="図 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A177D518-C9CC-4359-BF7C-8808A52F66D5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect t="60318"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3000375" y="6276975"/>
+            <a:ext cx="2772162" cy="3020487"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="51" name="直線コネクタ 50"/>
+          <xdr:cNvPr id="10" name="直線コネクタ 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8E1673-FB48-4ACB-AEC9-03B5A78D6DB1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1057275" y="10172700"/>
-            <a:ext cx="1581150" cy="0"/>
+            <a:off x="3000375" y="6276975"/>
+            <a:ext cx="2800350" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -1467,6 +1533,107 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F551EE8-A3E3-44CD-B32E-CDD2C30EAA9E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3928895" y="5664976"/>
+            <a:ext cx="915122" cy="519147"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>～</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="角丸四角形 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F5BA16-0513-4011-BA0B-F4EEF113151F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4724400" y="7391401"/>
+            <a:ext cx="419100" cy="400050"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1474,9 +1641,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1514,7 +1681,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1586,7 +1753,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1759,11 +1926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C14:R18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AG26" sqref="AG26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1837,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
@@ -1853,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
